--- a/server/doc/接口文档.xlsx
+++ b/server/doc/接口文档.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Video" sheetId="4" r:id="rId1"/>
+    <sheet name="user" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="93">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -316,6 +317,9 @@
   </si>
   <si>
     <t>datas（无）</t>
+  </si>
+  <si>
+    <t>datas（无）</t>
     <rPh sb="6" eb="7">
       <t>wu</t>
     </rPh>
@@ -373,6 +377,147 @@
   </si>
   <si>
     <t>videoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>入参</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否必选</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>视频名字</t>
+  </si>
+  <si>
+    <t>播放链接</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>logo图片的url</t>
+  </si>
+  <si>
+    <t>视频截图的url</t>
+  </si>
+  <si>
+    <t>评分，10分制 【9.3，5.0】</t>
+  </si>
+  <si>
+    <t>视频描述</t>
+  </si>
+  <si>
+    <t>类型，预留</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>错误码</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>错误描述</t>
+  </si>
+  <si>
+    <t>dbCode</t>
+  </si>
+  <si>
+    <t>数据库错误描述码</t>
+  </si>
+  <si>
+    <t>datas begin</t>
+  </si>
+  <si>
+    <t>datas end</t>
+  </si>
+  <si>
+    <t>注册</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <rPh sb="0" eb="1">
+      <t>tui'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,8 +580,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +617,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -477,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,8 +661,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,17 +691,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -800,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1209,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -1131,21 +1331,21 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
@@ -1158,10 +1358,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
@@ -1169,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
@@ -1177,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
@@ -1185,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
@@ -1193,15 +1393,15 @@
         <v>20</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
@@ -1209,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
@@ -1225,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -1235,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -1264,7 +1464,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -1417,7 +1617,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
@@ -1460,4 +1660,704 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/server/doc/接口文档.xlsx
+++ b/server/doc/接口文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -404,30 +404,9 @@
     <t>string</t>
   </si>
   <si>
-    <t>视频名字</t>
-  </si>
-  <si>
-    <t>播放链接</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
-    <t>logo图片的url</t>
-  </si>
-  <si>
-    <t>视频截图的url</t>
-  </si>
-  <si>
-    <t>评分，10分制 【9.3，5.0】</t>
-  </si>
-  <si>
-    <t>视频描述</t>
-  </si>
-  <si>
-    <t>类型，预留</t>
-  </si>
-  <si>
     <t>返回</t>
   </si>
   <si>
@@ -513,11 +492,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与api/user/info 接口返回的userInfo一致</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取用户信息   </t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持方法</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fagn'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>userNo</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>用户id</t>
+    <rPh sb="0" eb="1">
+      <t>yong'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账户</t>
+    <rPh sb="0" eb="1">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhagn'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名字</t>
+    <rPh sb="0" eb="1">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <rPh sb="0" eb="1">
+      <t>zhagn'h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名字</t>
+    <rPh sb="0" eb="1">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别 1男、2女</t>
+    <rPh sb="0" eb="1">
+      <t>xing'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +723,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +778,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -666,7 +809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,16 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -697,8 +831,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -706,7 +853,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -998,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E65"/>
+  <dimension ref="B1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1016,61 +1163,57 @@
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1079,26 +1222,26 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1107,12 +1250,12 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>19</v>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1121,12 +1264,12 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1135,12 +1278,12 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1149,378 +1292,370 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="12" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="6"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="9" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C48" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C50" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="12" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
+      <c r="D53" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>19</v>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -1529,12 +1664,12 @@
         <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="7" t="s">
-        <v>20</v>
+      <c r="B55" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -1543,12 +1678,12 @@
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="7" t="s">
-        <v>21</v>
+      <c r="B56" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -1557,105 +1692,147 @@
         <v>22</v>
       </c>
       <c r="E56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="12" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="9" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="9" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B60:E60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1676,685 +1853,784 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="23" t="s">
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>63</v>
+      <c r="E43" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E63" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="10"/>
+      <c r="B64" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="10"/>
+      <c r="B65" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="10"/>
+      <c r="B66" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="10"/>
+      <c r="B67" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="15" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="10"/>
+      <c r="B68" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="10"/>
+      <c r="B69" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="19" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="10"/>
+      <c r="B71" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C39:E39"/>
+  <mergeCells count="26">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B69:E69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/doc/接口文档.xlsx
+++ b/server/doc/接口文档.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Video" sheetId="4" r:id="rId1"/>
+    <sheet name="video" sheetId="4" r:id="rId1"/>
     <sheet name="user" sheetId="5" r:id="rId2"/>
+    <sheet name="history" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -655,6 +656,71 @@
   </si>
   <si>
     <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加播放历史</t>
+    <rPh sb="0" eb="1">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/history/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频id</t>
+    <rPh sb="0" eb="1">
+      <t>shi'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取播放历史列表</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo'fang'li'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/history/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,27 +899,28 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1215,7 @@
   <dimension ref="B1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1163,11 +1230,11 @@
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
@@ -1190,12 +1257,12 @@
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -1310,12 +1377,12 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
@@ -1370,30 +1437,30 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
@@ -1416,12 +1483,12 @@
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
@@ -1442,12 +1509,12 @@
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
@@ -1516,12 +1583,12 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
@@ -1580,22 +1647,22 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="9" t="s">
@@ -1618,12 +1685,12 @@
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
@@ -1738,12 +1805,12 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
@@ -1798,34 +1865,23 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="B45:E45"/>
@@ -1833,6 +1889,17 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1857,11 +1924,11 @@
       <c r="B1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
@@ -1878,20 +1945,20 @@
       <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -1970,12 +2037,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
@@ -2042,12 +2109,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
@@ -2062,23 +2129,23 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
@@ -2095,20 +2162,20 @@
       <c r="B23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
@@ -2157,12 +2224,12 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
@@ -2207,12 +2274,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
@@ -2240,23 +2307,23 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="9" t="s">
@@ -2273,20 +2340,20 @@
       <c r="B40" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -2320,12 +2387,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
@@ -2370,21 +2437,21 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
@@ -2432,32 +2499,32 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="9" t="s">
@@ -2474,20 +2541,20 @@
       <c r="B60" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
@@ -2521,12 +2588,12 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
@@ -2580,12 +2647,12 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
@@ -2596,21 +2663,22 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C40:E40"/>
@@ -2624,16 +2692,410 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B54:E54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>